--- a/model/src/rag_zero_shot_prompting_easy_Llama1B_results.xlsx
+++ b/model/src/rag_zero_shot_prompting_easy_Llama1B_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1176153\Downloads\github\Thesis\model\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D13806-B8D3-475B-B38D-8A6B2DA3F4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CA8C49-2455-4F3A-BC57-5C7555746C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1740,10 +1740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2633,6 +2633,12 @@
       </c>
       <c r="E52" s="4">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <f>AVERAGE(D1:D52)</f>
+        <v>99.127848031474102</v>
       </c>
     </row>
   </sheetData>
